--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H2">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I2">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J2">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.00267624168719</v>
+        <v>7.017424666666667</v>
       </c>
       <c r="N2">
-        <v>7.00267624168719</v>
+        <v>21.052274</v>
       </c>
       <c r="O2">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="P2">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="Q2">
-        <v>396.9053767909486</v>
+        <v>406.8872245756203</v>
       </c>
       <c r="R2">
-        <v>396.9053767909486</v>
+        <v>3661.985021180582</v>
       </c>
       <c r="S2">
-        <v>0.03129506116708494</v>
+        <v>0.03012962384832762</v>
       </c>
       <c r="T2">
-        <v>0.03129506116708494</v>
+        <v>0.03012962384832763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H3">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I3">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J3">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.4969246193197</v>
+        <v>6.554651666666667</v>
       </c>
       <c r="N3">
-        <v>6.4969246193197</v>
+        <v>19.663955</v>
       </c>
       <c r="O3">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="P3">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="Q3">
-        <v>368.2398307467925</v>
+        <v>380.0545287473406</v>
       </c>
       <c r="R3">
-        <v>368.2398307467925</v>
+        <v>3420.490758726065</v>
       </c>
       <c r="S3">
-        <v>0.02903484986913556</v>
+        <v>0.02814268746076748</v>
       </c>
       <c r="T3">
-        <v>0.02903484986913556</v>
+        <v>0.02814268746076748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H4">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I4">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J4">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4020369716377</v>
+        <v>11.432472</v>
       </c>
       <c r="N4">
-        <v>11.4020369716377</v>
+        <v>34.297416</v>
       </c>
       <c r="O4">
-        <v>0.3243516145420003</v>
+        <v>0.311943133302843</v>
       </c>
       <c r="P4">
-        <v>0.3243516145420003</v>
+        <v>0.3119431333028431</v>
       </c>
       <c r="Q4">
-        <v>646.2571771448667</v>
+        <v>662.882328358232</v>
       </c>
       <c r="R4">
-        <v>646.2571771448667</v>
+        <v>5965.940955224089</v>
       </c>
       <c r="S4">
-        <v>0.05095586774847004</v>
+        <v>0.0490858252675988</v>
       </c>
       <c r="T4">
-        <v>0.05095586774847004</v>
+        <v>0.04908582526759881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H5">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I5">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J5">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.82890887178562</v>
+        <v>9.966754</v>
       </c>
       <c r="N5">
-        <v>8.82890887178562</v>
+        <v>29.900262</v>
       </c>
       <c r="O5">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402525</v>
       </c>
       <c r="P5">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402526</v>
       </c>
       <c r="Q5">
-        <v>500.4145960009034</v>
+        <v>577.8964599864074</v>
       </c>
       <c r="R5">
-        <v>500.4145960009034</v>
+        <v>5201.068139877667</v>
       </c>
       <c r="S5">
-        <v>0.03945652114206256</v>
+        <v>0.04279270006776675</v>
       </c>
       <c r="T5">
-        <v>0.03945652114206256</v>
+        <v>0.04279270006776676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H6">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I6">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J6">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.42277598748212</v>
+        <v>1.677916</v>
       </c>
       <c r="N6">
-        <v>1.42277598748212</v>
+        <v>5.033748</v>
       </c>
       <c r="O6">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221462</v>
       </c>
       <c r="P6">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221463</v>
       </c>
       <c r="Q6">
-        <v>80.64166040391537</v>
+        <v>97.28962072852934</v>
       </c>
       <c r="R6">
-        <v>80.64166040391537</v>
+        <v>875.6065865567641</v>
       </c>
       <c r="S6">
-        <v>0.006358406417570545</v>
+        <v>0.007204206718346506</v>
       </c>
       <c r="T6">
-        <v>0.006358406417570545</v>
+        <v>0.007204206718346507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H7">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I7">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J7">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.00267624168719</v>
+        <v>7.017424666666667</v>
       </c>
       <c r="N7">
-        <v>7.00267624168719</v>
+        <v>21.052274</v>
       </c>
       <c r="O7">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="P7">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="Q7">
-        <v>539.1757065688552</v>
+        <v>540.5281382718773</v>
       </c>
       <c r="R7">
-        <v>539.1757065688552</v>
+        <v>4864.753244446896</v>
       </c>
       <c r="S7">
-        <v>0.04251274410365549</v>
+        <v>0.04002561029669718</v>
       </c>
       <c r="T7">
-        <v>0.04251274410365549</v>
+        <v>0.04002561029669719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H8">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I8">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J8">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.4969246193197</v>
+        <v>6.554651666666667</v>
       </c>
       <c r="N8">
-        <v>6.4969246193197</v>
+        <v>19.663955</v>
       </c>
       <c r="O8">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="P8">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="Q8">
-        <v>500.2350246171453</v>
+        <v>504.8823223188134</v>
       </c>
       <c r="R8">
-        <v>500.2350246171453</v>
+        <v>4543.94090086932</v>
       </c>
       <c r="S8">
-        <v>0.03944236235821336</v>
+        <v>0.03738607048919229</v>
       </c>
       <c r="T8">
-        <v>0.03944236235821336</v>
+        <v>0.03738607048919229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H9">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I9">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J9">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4020369716377</v>
+        <v>11.432472</v>
       </c>
       <c r="N9">
-        <v>11.4020369716377</v>
+        <v>34.297416</v>
       </c>
       <c r="O9">
-        <v>0.3243516145420003</v>
+        <v>0.311943133302843</v>
       </c>
       <c r="P9">
-        <v>0.3243516145420003</v>
+        <v>0.3119431333028431</v>
       </c>
       <c r="Q9">
-        <v>877.9074068724574</v>
+        <v>880.6040819160959</v>
       </c>
       <c r="R9">
-        <v>877.9074068724574</v>
+        <v>7925.436737244863</v>
       </c>
       <c r="S9">
-        <v>0.06922094686457526</v>
+        <v>0.06520792038901387</v>
       </c>
       <c r="T9">
-        <v>0.06922094686457526</v>
+        <v>0.06520792038901388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H10">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I10">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J10">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.82890887178562</v>
+        <v>9.966754</v>
       </c>
       <c r="N10">
-        <v>8.82890887178562</v>
+        <v>29.900262</v>
       </c>
       <c r="O10">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402525</v>
       </c>
       <c r="P10">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402526</v>
       </c>
       <c r="Q10">
-        <v>679.7877004278173</v>
+        <v>767.704854720272</v>
       </c>
       <c r="R10">
-        <v>679.7877004278173</v>
+        <v>6909.343692482448</v>
       </c>
       <c r="S10">
-        <v>0.05359967112948848</v>
+        <v>0.05684783670311072</v>
       </c>
       <c r="T10">
-        <v>0.05359967112948848</v>
+        <v>0.05684783670311074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H11">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I11">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J11">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.42277598748212</v>
+        <v>1.677916</v>
       </c>
       <c r="N11">
-        <v>1.42277598748212</v>
+        <v>5.033748</v>
       </c>
       <c r="O11">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221462</v>
       </c>
       <c r="P11">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221463</v>
       </c>
       <c r="Q11">
-        <v>109.5475817906791</v>
+        <v>129.244110872288</v>
       </c>
       <c r="R11">
-        <v>109.5475817906791</v>
+        <v>1163.196997850592</v>
       </c>
       <c r="S11">
-        <v>0.008637570749391076</v>
+        <v>0.009570407252906685</v>
       </c>
       <c r="T11">
-        <v>0.008637570749391076</v>
+        <v>0.009570407252906686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H12">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I12">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J12">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.00267624168719</v>
+        <v>7.017424666666667</v>
       </c>
       <c r="N12">
-        <v>7.00267624168719</v>
+        <v>21.052274</v>
       </c>
       <c r="O12">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="P12">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="Q12">
-        <v>723.398692683048</v>
+        <v>725.3186627094033</v>
       </c>
       <c r="R12">
-        <v>723.398692683048</v>
+        <v>6527.867964384629</v>
       </c>
       <c r="S12">
-        <v>0.05703829592520033</v>
+        <v>0.05370917826284525</v>
       </c>
       <c r="T12">
-        <v>0.05703829592520033</v>
+        <v>0.05370917826284526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H13">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I13">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J13">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.4969246193197</v>
+        <v>6.554651666666667</v>
       </c>
       <c r="N13">
-        <v>6.4969246193197</v>
+        <v>19.663955</v>
       </c>
       <c r="O13">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="P13">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="Q13">
-        <v>671.152944084106</v>
+        <v>677.4866004583583</v>
       </c>
       <c r="R13">
-        <v>671.152944084106</v>
+        <v>6097.379404125225</v>
       </c>
       <c r="S13">
-        <v>0.05291884077610768</v>
+        <v>0.05016725815213915</v>
       </c>
       <c r="T13">
-        <v>0.05291884077610768</v>
+        <v>0.05016725815213915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H14">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I14">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J14">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.4020369716377</v>
+        <v>11.432472</v>
       </c>
       <c r="N14">
-        <v>11.4020369716377</v>
+        <v>34.297416</v>
       </c>
       <c r="O14">
-        <v>0.3243516145420003</v>
+        <v>0.311943133302843</v>
       </c>
       <c r="P14">
-        <v>0.3243516145420003</v>
+        <v>0.3119431333028431</v>
       </c>
       <c r="Q14">
-        <v>1177.866626205642</v>
+        <v>1181.65647604188</v>
       </c>
       <c r="R14">
-        <v>1177.866626205642</v>
+        <v>10634.90828437692</v>
       </c>
       <c r="S14">
-        <v>0.09287203013424671</v>
+        <v>0.08750057261742654</v>
       </c>
       <c r="T14">
-        <v>0.09287203013424671</v>
+        <v>0.08750057261742655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H15">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I15">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J15">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.82890887178562</v>
+        <v>9.966754</v>
       </c>
       <c r="N15">
-        <v>8.82890887178562</v>
+        <v>29.900262</v>
       </c>
       <c r="O15">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402525</v>
       </c>
       <c r="P15">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402526</v>
       </c>
       <c r="Q15">
-        <v>912.0543225526407</v>
+        <v>1030.16035457741</v>
       </c>
       <c r="R15">
-        <v>912.0543225526407</v>
+        <v>9271.443191196689</v>
       </c>
       <c r="S15">
-        <v>0.071913351345257</v>
+        <v>0.0762824244955095</v>
       </c>
       <c r="T15">
-        <v>0.071913351345257</v>
+        <v>0.07628242449550951</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H16">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I16">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J16">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.42277598748212</v>
+        <v>1.677916</v>
       </c>
       <c r="N16">
-        <v>1.42277598748212</v>
+        <v>5.033748</v>
       </c>
       <c r="O16">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221462</v>
       </c>
       <c r="P16">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221463</v>
       </c>
       <c r="Q16">
-        <v>146.9772775154631</v>
+        <v>173.42883565814</v>
       </c>
       <c r="R16">
-        <v>146.9772775154631</v>
+        <v>1560.85952092326</v>
       </c>
       <c r="S16">
-        <v>0.01158881476287154</v>
+        <v>0.01284224538699433</v>
       </c>
       <c r="T16">
-        <v>0.01158881476287154</v>
+        <v>0.01284224538699433</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H17">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I17">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J17">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.00267624168719</v>
+        <v>7.017424666666667</v>
       </c>
       <c r="N17">
-        <v>7.00267624168719</v>
+        <v>21.052274</v>
       </c>
       <c r="O17">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="P17">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="Q17">
-        <v>633.3944180783765</v>
+        <v>645.9116301742098</v>
       </c>
       <c r="R17">
-        <v>633.3944180783765</v>
+        <v>5813.204671567888</v>
       </c>
       <c r="S17">
-        <v>0.04994166926363745</v>
+        <v>0.04782916071328307</v>
       </c>
       <c r="T17">
-        <v>0.04994166926363745</v>
+        <v>0.04782916071328308</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H18">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I18">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J18">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.4969246193197</v>
+        <v>6.554651666666667</v>
       </c>
       <c r="N18">
-        <v>6.4969246193197</v>
+        <v>19.663955</v>
       </c>
       <c r="O18">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="P18">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="Q18">
-        <v>587.6490139663523</v>
+        <v>603.3161657368845</v>
       </c>
       <c r="R18">
-        <v>587.6490139663523</v>
+        <v>5429.845491631961</v>
       </c>
       <c r="S18">
-        <v>0.04633475108234799</v>
+        <v>0.04467500584277814</v>
       </c>
       <c r="T18">
-        <v>0.04633475108234799</v>
+        <v>0.04467500584277814</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H19">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I19">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J19">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.4020369716377</v>
+        <v>11.432472</v>
       </c>
       <c r="N19">
-        <v>11.4020369716377</v>
+        <v>34.297416</v>
       </c>
       <c r="O19">
-        <v>0.3243516145420003</v>
+        <v>0.311943133302843</v>
       </c>
       <c r="P19">
-        <v>0.3243516145420003</v>
+        <v>0.3119431333028431</v>
       </c>
       <c r="Q19">
-        <v>1031.318073733845</v>
+        <v>1052.290117415488</v>
       </c>
       <c r="R19">
-        <v>1031.318073733845</v>
+        <v>9470.611056739392</v>
       </c>
       <c r="S19">
-        <v>0.08131701933889481</v>
+        <v>0.07792111303103531</v>
       </c>
       <c r="T19">
-        <v>0.08131701933889481</v>
+        <v>0.07792111303103533</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H20">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I20">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J20">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.82890887178562</v>
+        <v>9.966754</v>
       </c>
       <c r="N20">
-        <v>8.82890887178562</v>
+        <v>29.900262</v>
       </c>
       <c r="O20">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402525</v>
       </c>
       <c r="P20">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402526</v>
       </c>
       <c r="Q20">
-        <v>798.57777285507</v>
+        <v>917.3796128178826</v>
       </c>
       <c r="R20">
-        <v>798.57777285507</v>
+        <v>8256.416515360945</v>
       </c>
       <c r="S20">
-        <v>0.06296599066063295</v>
+        <v>0.06793111454692594</v>
       </c>
       <c r="T20">
-        <v>0.06296599066063295</v>
+        <v>0.06793111454692595</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H21">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I21">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J21">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.42277598748212</v>
+        <v>1.677916</v>
       </c>
       <c r="N21">
-        <v>1.42277598748212</v>
+        <v>5.033748</v>
       </c>
       <c r="O21">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221462</v>
       </c>
       <c r="P21">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221463</v>
       </c>
       <c r="Q21">
-        <v>128.6905659414006</v>
+        <v>154.4420510851307</v>
       </c>
       <c r="R21">
-        <v>128.6905659414006</v>
+        <v>1389.978459766176</v>
       </c>
       <c r="S21">
-        <v>0.01014695030166886</v>
+        <v>0.01143629149431397</v>
       </c>
       <c r="T21">
-        <v>0.01014695030166886</v>
+        <v>0.01143629149431397</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H22">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I22">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J22">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.00267624168719</v>
+        <v>7.017424666666667</v>
       </c>
       <c r="N22">
-        <v>7.00267624168719</v>
+        <v>21.052274</v>
       </c>
       <c r="O22">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="P22">
-        <v>0.199203822155289</v>
+        <v>0.1914754252830586</v>
       </c>
       <c r="Q22">
-        <v>233.5649672727116</v>
+        <v>267.1451513514231</v>
       </c>
       <c r="R22">
-        <v>233.5649672727116</v>
+        <v>2404.306362162808</v>
       </c>
       <c r="S22">
-        <v>0.01841605169571084</v>
+        <v>0.01978185216190542</v>
       </c>
       <c r="T22">
-        <v>0.01841605169571084</v>
+        <v>0.01978185216190543</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H23">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I23">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J23">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.4969246193197</v>
+        <v>6.554651666666667</v>
       </c>
       <c r="N23">
-        <v>6.4969246193197</v>
+        <v>19.663955</v>
       </c>
       <c r="O23">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="P23">
-        <v>0.1848168002854091</v>
+        <v>0.1788483346916312</v>
       </c>
       <c r="Q23">
-        <v>216.6962934900832</v>
+        <v>249.5279243773178</v>
       </c>
       <c r="R23">
-        <v>216.6962934900832</v>
+        <v>2245.75131939586</v>
       </c>
       <c r="S23">
-        <v>0.01708599619960451</v>
+        <v>0.01847731274675415</v>
       </c>
       <c r="T23">
-        <v>0.01708599619960451</v>
+        <v>0.01847731274675415</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H24">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I24">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J24">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.4020369716377</v>
+        <v>11.432472</v>
       </c>
       <c r="N24">
-        <v>11.4020369716377</v>
+        <v>34.297416</v>
       </c>
       <c r="O24">
-        <v>0.3243516145420003</v>
+        <v>0.311943133302843</v>
       </c>
       <c r="P24">
-        <v>0.3243516145420003</v>
+        <v>0.3119431333028431</v>
       </c>
       <c r="Q24">
-        <v>380.2998025625084</v>
+        <v>435.220840669408</v>
       </c>
       <c r="R24">
-        <v>380.2998025625084</v>
+        <v>3916.987566024672</v>
       </c>
       <c r="S24">
-        <v>0.02998575045581353</v>
+        <v>0.03222770199776848</v>
       </c>
       <c r="T24">
-        <v>0.02998575045581353</v>
+        <v>0.03222770199776849</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H25">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I25">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J25">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.82890887178562</v>
+        <v>9.966754</v>
       </c>
       <c r="N25">
-        <v>8.82890887178562</v>
+        <v>29.900262</v>
       </c>
       <c r="O25">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402525</v>
       </c>
       <c r="P25">
-        <v>0.2511543204368807</v>
+        <v>0.2719499747402526</v>
       </c>
       <c r="Q25">
-        <v>294.4765316175067</v>
+        <v>379.4226703223227</v>
       </c>
       <c r="R25">
-        <v>294.4765316175067</v>
+        <v>3414.804032900905</v>
       </c>
       <c r="S25">
-        <v>0.02321878615943975</v>
+        <v>0.02809589892693961</v>
       </c>
       <c r="T25">
-        <v>0.02321878615943975</v>
+        <v>0.02809589892693961</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H26">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I26">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J26">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.42277598748212</v>
+        <v>1.677916</v>
       </c>
       <c r="N26">
-        <v>1.42277598748212</v>
+        <v>5.033748</v>
       </c>
       <c r="O26">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221462</v>
       </c>
       <c r="P26">
-        <v>0.04047344258042088</v>
+        <v>0.04578313198221463</v>
       </c>
       <c r="Q26">
-        <v>47.45480377550569</v>
+        <v>63.87630007689067</v>
       </c>
       <c r="R26">
-        <v>47.45480377550569</v>
+        <v>574.8867006920161</v>
       </c>
       <c r="S26">
-        <v>0.003741700348918859</v>
+        <v>0.004729981129653124</v>
       </c>
       <c r="T26">
-        <v>0.003741700348918859</v>
+        <v>0.004729981129653124</v>
       </c>
     </row>
   </sheetData>
